--- a/test_case/unit-test-case_v3.xlsx
+++ b/test_case/unit-test-case_v3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\plus_pm_jp\wp-content\uploads\blog\test-case-excel-unit-test\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4641B03-8EE7-43E1-9C94-59E886D168CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A445F8EB-C718-44AD-ACCD-775EFA75DF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="1260" windowWidth="22725" windowHeight="14040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="1260" windowWidth="22725" windowHeight="14040" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新完了画面" sheetId="15" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="214">
   <si>
     <t>テストID</t>
   </si>
@@ -88,13 +88,19 @@
     <t>画面表示</t>
   </si>
   <si>
-    <t>テキストが表示されているか</t>
+    <t>エラー時のテキストが表示されているか</t>
   </si>
   <si>
     <t>1.画面内のテキストを目視する</t>
   </si>
   <si>
-    <t>「更新完了しました」のテキストが画面中央に大きく表示される</t>
+    <t>「エラーが発生したためアカウント更新できません。」のテキストが赤字で表示される</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>河本</t>
   </si>
   <si>
     <t>【TOPに戻る】ボタン</t>
@@ -167,7 +173,7 @@
     <t>1.【登録する】ボタンをクリックする</t>
   </si>
   <si>
-    <t>DB登録処理にエラーがなければ、アカウント登録完了画面「regist_complete.php」へ遷移する。</t>
+    <t>アカウント登録完了画面「regist_complete.php」へ遷移する。</t>
   </si>
   <si>
     <t>名前（姓）</t>
@@ -327,11 +333,11 @@
     <t>パスワード</t>
   </si>
   <si>
+    <t>未入力でも画面遷移できるか</t>
+  </si>
+  <si>
     <t>1.「パスワード」の入力フォームには入力しない
 2.確認ボタンをクリックする</t>
-  </si>
-  <si>
-    <t>入力欄の下に「パスワードが未入力です」とエラーメッセージが表示される</t>
   </si>
   <si>
     <t>1.「パスワード」の入力フォームへ半角英数字「以外」で入力する
@@ -486,7 +492,7 @@
 2.確認ボタンをクリックする</t>
   </si>
   <si>
-    <t>未入力項目があると更新確認画面へ遷移せず、入力欄の下にエラーが表示される</t>
+    <t>「パスワード」以外の未入力項目があると更新確認画面へ遷移せず、入力欄の下にエラーが表示される</t>
   </si>
   <si>
     <t>許容外文字種についてチェックが行われるか</t>
@@ -499,18 +505,18 @@
     <t>許容外文字種の入力があると更新確認画面へ遷移せず、入力欄の下にエラーが表示される</t>
   </si>
   <si>
-    <t>1.「名前（姓）」の入力フォームへ「山田」を入力する
-2.「名前（名）」の入力フォームへ「太郎」を入力する
-3.「カナ（姓）」の入力フォームへ「ヤマダ」を入力する
-4.「カナ（名）」の入力フォームへ「タロウ」を入力する
-5.「メールアドレス」の入力フォームへ「test@mail.com」を入力する
-6.「パスワード」の入力フォームへ「abc123」を入力する
+    <t>1.「名前（姓）」の入力フォームへ「更新」を入力する
+2.「名前（名）」の入力フォームへ「確認」を入力する
+3.「カナ（姓）」の入力フォームへ「コウシン」を入力する
+4.「カナ（名）」の入力フォームへ「カクニン」を入力する
+5.「メールアドレス」の入力フォームへ「koushin@mail.com」を入力する
+6.「パスワード」の入力フォームへ、「abc123」を入力する
 7.「性別」のリストから「男性」を選択する
-8.「郵便番号」の入力フォームへ「1234567」を入力する
-9.「住所（都道府県）」のリストから「東京都」を選択する
-10.「住所（市区町村）」の入力フォームへ「新宿区西新宿」を入力する
-11.「住所（番地）」の入力フォームへ「1-1-1」を入力する
-12.「アカウント権限」のリストから「一般」を選択する
+8.「郵便番号」の入力フォームへ「0123456」を入力する
+9.「住所（都道府県）」のリストから「北海道」を選択する
+10.「住所（市区町村）」の入力フォームへ「旭川市」を入力する
+11.「住所（番地）」の入力フォームへ「2-2-2」を入力する
+12.「アカウント権限」のリストから「管理者」を選択する
 13.確認ボタンをクリックする</t>
   </si>
   <si>
@@ -527,7 +533,10 @@
     <t>1.【確認する】ボタンをクリックする</t>
   </si>
   <si>
-    <t>アカウント更新画面「update.php」へ遷移する。</t>
+    <t>アカウント更新画面「update_confirm.php」へ遷移する。</t>
+  </si>
+  <si>
+    <t>テキストが表示されているか</t>
   </si>
   <si>
     <t>「削除完了しました」のテキストが画面中央に大きく表示される</t>
@@ -577,12 +586,6 @@
     <t>左から「ID」「名前(姓)」「名前(名)」「カナ(姓)」「カナ(名)」「メールアドレス」「性別」「アカウント権限」「削除フラグ」「登録日時」「更新日時」「操作」の順で並んでいる</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>河本</t>
-  </si>
-  <si>
     <t>【更新】ボタン</t>
   </si>
   <si>
@@ -594,6 +597,9 @@
   </si>
   <si>
     <t>1.【更新】ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>アカウント更新画面「update.php」へ遷移する。</t>
   </si>
   <si>
     <t>【削除】ボタン</t>
@@ -677,6 +683,9 @@
     <t>ブログトップ画面「index.php」へ遷移する。</t>
   </si>
   <si>
+    <t>DB登録処理にエラーがなければ、アカウント登録完了画面「regist_complete.php」へ遷移する。</t>
+  </si>
+  <si>
     <t>空欄と同じ扱いとなる</t>
   </si>
   <si>
@@ -698,6 +707,9 @@
   <si>
     <t>mailとして指定しておき、一次チェックとして活用するが、ブラウザごとで挙動が異なるため、
 オンマウスで「メールアドレスの形式で入力してください」を表示</t>
+  </si>
+  <si>
+    <t>入力欄の下に「パスワードが未入力です」とエラーメッセージが表示される</t>
   </si>
   <si>
     <t>初期値が「男」となっているか</t>
@@ -736,6 +748,21 @@
   </si>
   <si>
     <t>許容外文字種の入力があると確認画面へ遷移せず、入力欄の下にエラーが表示される</t>
+  </si>
+  <si>
+    <t>1.「名前（姓）」の入力フォームへ「山田」を入力する
+2.「名前（名）」の入力フォームへ「太郎」を入力する
+3.「カナ（姓）」の入力フォームへ「ヤマダ」を入力する
+4.「カナ（名）」の入力フォームへ「タロウ」を入力する
+5.「メールアドレス」の入力フォームへ「test@mail.com」を入力する
+6.「パスワード」の入力フォームへ「abc123」を入力する
+7.「性別」のリストから「男性」を選択する
+8.「郵便番号」の入力フォームへ「1234567」を入力する
+9.「住所（都道府県）」のリストから「東京都」を選択する
+10.「住所（市区町村）」の入力フォームへ「新宿区西新宿」を入力する
+11.「住所（番地）」の入力フォームへ「1-1-1」を入力する
+12.「アカウント権限」のリストから「一般」を選択する
+13.確認ボタンをクリックする</t>
   </si>
   <si>
     <t>エラー項目がない場合、確認画面に遷移する</t>
@@ -857,7 +884,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -926,6 +953,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1259,14 +1289,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47A473B-AF42-49A1-B26A-9682AD7C7703}">
   <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.125" style="10" customWidth="1"/>
     <col min="4" max="4" width="53.875" style="10" customWidth="1"/>
     <col min="5" max="5" width="53.625" style="10" customWidth="1"/>
@@ -1349,11 +1379,21 @@
       <c r="E5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="5"/>
+      <c r="F5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K5" s="6"/>
       <c r="L5" s="20"/>
     </row>
@@ -1363,22 +1403,32 @@
         <v>2</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="5"/>
       <c r="K6" s="7"/>
       <c r="L6" s="20"/>
     </row>
@@ -1389,19 +1439,29 @@
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K7" s="7"/>
       <c r="L7" s="20"/>
     </row>
@@ -1412,19 +1472,29 @@
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K8" s="7"/>
       <c r="L8" s="20"/>
     </row>
@@ -3072,13 +3142,13 @@
   <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B5:E10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.125" style="10" customWidth="1"/>
     <col min="4" max="4" width="53.875" style="10" customWidth="1"/>
     <col min="5" max="5" width="53.625" style="10" customWidth="1"/>
@@ -3150,31 +3220,31 @@
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I5" s="8">
         <v>45028</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="20"/>
@@ -3186,28 +3256,28 @@
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I6" s="8">
         <v>45028</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="20"/>
@@ -3219,28 +3289,28 @@
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I7" s="8">
         <v>45028</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="20"/>
@@ -3251,31 +3321,31 @@
         <v>4</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I8" s="8">
         <v>45028</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="20"/>
@@ -3287,28 +3357,28 @@
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I9" s="8">
         <v>45028</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="20"/>
@@ -3320,28 +3390,28 @@
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>38</v>
+        <v>191</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I10" s="8">
         <v>45028</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="20"/>
@@ -4962,13 +5032,13 @@
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.125" style="10" customWidth="1"/>
     <col min="4" max="4" width="53.875" style="10" customWidth="1"/>
     <col min="5" max="5" width="53.625" style="10" customWidth="1"/>
     <col min="6" max="8" width="12.75" style="3" customWidth="1"/>
     <col min="9" max="10" width="11.75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="44.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="44.375" style="2" customWidth="1"/>
     <col min="12" max="12" width="29.125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5034,31 +5104,31 @@
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I5" s="8">
         <v>45028</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="20"/>
@@ -5070,28 +5140,28 @@
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I6" s="8">
         <v>45028</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="20"/>
@@ -5103,37 +5173,37 @@
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>45</v>
-      </c>
       <c r="F7" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I7" s="8">
         <v>45037</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M7" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -5143,28 +5213,28 @@
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I8" s="8">
         <v>45028</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="20"/>
@@ -5176,28 +5246,28 @@
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I9" s="8">
         <v>45028</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="20"/>
@@ -5208,31 +5278,31 @@
         <v>6</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I10" s="8">
         <v>45028</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="20"/>
@@ -5244,28 +5314,28 @@
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I11" s="8">
         <v>45028</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="20"/>
@@ -5277,37 +5347,37 @@
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I12" s="8">
         <v>45037</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M12" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -5317,28 +5387,28 @@
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I13" s="8">
         <v>45028</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="20"/>
@@ -5350,28 +5420,28 @@
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I14" s="8">
         <v>45028</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="20"/>
@@ -5381,31 +5451,31 @@
         <v>9</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I15" s="8">
         <v>45028</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="20"/>
@@ -5417,28 +5487,28 @@
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I16" s="8">
         <v>45028</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="20"/>
@@ -5450,37 +5520,37 @@
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I17" s="8">
         <v>45037</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M17" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -5490,28 +5560,28 @@
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I18" s="8">
         <v>45028</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="20"/>
@@ -5523,37 +5593,37 @@
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I19" s="8">
         <v>45028</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M19" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="36.75">
@@ -5562,31 +5632,31 @@
         <v>16</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I20" s="8">
         <v>45028</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="20"/>
@@ -5598,28 +5668,28 @@
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I21" s="8">
         <v>45028</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="20"/>
@@ -5631,37 +5701,37 @@
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I22" s="8">
         <v>45037</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M22" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -5671,28 +5741,28 @@
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I23" s="8">
         <v>45028</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K23" s="7"/>
       <c r="L23" s="20"/>
@@ -5704,37 +5774,37 @@
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I24" s="8">
         <v>45028</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L24" s="20" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M24" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="36.75">
@@ -5743,31 +5813,31 @@
         <v>21</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I25" s="8">
         <v>45028</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="20"/>
@@ -5779,37 +5849,37 @@
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I26" s="8">
         <v>45028</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M26" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -5819,28 +5889,28 @@
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I27" s="8">
         <v>45028</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K27" s="7"/>
       <c r="L27" s="20"/>
@@ -5852,37 +5922,37 @@
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I28" s="8">
         <v>45028</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M28" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="36.75">
@@ -5891,31 +5961,31 @@
         <v>25</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I29" s="8">
         <v>45028</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K29" s="7"/>
       <c r="L29" s="20"/>
@@ -5927,28 +5997,28 @@
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I30" s="8">
         <v>45028</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K30" s="7"/>
       <c r="L30" s="20"/>
@@ -5960,28 +6030,28 @@
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I31" s="8">
         <v>45028</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K31" s="7"/>
       <c r="L31" s="20"/>
@@ -5993,28 +6063,28 @@
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I32" s="8">
         <v>45028</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K32" s="7"/>
       <c r="L32" s="20"/>
@@ -6026,28 +6096,28 @@
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I33" s="8">
         <v>45028</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="20"/>
@@ -6058,31 +6128,31 @@
         <v>30</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I34" s="8">
         <v>45028</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K34" s="7"/>
       <c r="L34" s="20"/>
@@ -6094,28 +6164,28 @@
       </c>
       <c r="B35" s="16"/>
       <c r="C35" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I35" s="8">
         <v>45028</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="20"/>
@@ -6126,31 +6196,31 @@
         <v>32</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I36" s="8">
         <v>45028</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K36" s="7"/>
       <c r="L36" s="20"/>
@@ -6162,28 +6232,28 @@
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I37" s="8">
         <v>45028</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="20"/>
@@ -6195,28 +6265,28 @@
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I38" s="8">
         <v>45028</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K38" s="7"/>
       <c r="L38" s="20"/>
@@ -6227,37 +6297,37 @@
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I39" s="8">
         <v>45028</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K39" s="19" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L39" s="20" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M39" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="36.75">
@@ -6266,31 +6336,31 @@
         <v>36</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I40" s="8">
         <v>45028</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K40" s="7"/>
       <c r="L40" s="20"/>
@@ -6302,28 +6372,28 @@
       </c>
       <c r="B41" s="16"/>
       <c r="C41" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I41" s="8">
         <v>45028</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K41" s="7"/>
       <c r="L41" s="20"/>
@@ -6335,37 +6405,37 @@
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I42" s="8">
         <v>45037</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L42" s="20" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M42" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="36.75">
@@ -6375,28 +6445,28 @@
       </c>
       <c r="B43" s="16"/>
       <c r="C43" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I43" s="8">
         <v>45028</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K43" s="7"/>
       <c r="L43" s="20"/>
@@ -6407,31 +6477,31 @@
         <v>40</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I44" s="8">
         <v>45028</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K44" s="7"/>
       <c r="L44" s="20"/>
@@ -6443,37 +6513,37 @@
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I45" s="8">
         <v>45028</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L45" s="20" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M45" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -6483,28 +6553,28 @@
       </c>
       <c r="B46" s="16"/>
       <c r="C46" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I46" s="8">
         <v>45028</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K46" s="7"/>
       <c r="L46" s="20"/>
@@ -6516,28 +6586,28 @@
       </c>
       <c r="B47" s="16"/>
       <c r="C47" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I47" s="8">
         <v>45028</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K47" s="7"/>
       <c r="L47" s="20"/>
@@ -6548,31 +6618,31 @@
         <v>44</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I48" s="8">
         <v>45028</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K48" s="7"/>
       <c r="L48" s="20"/>
@@ -6584,37 +6654,37 @@
       </c>
       <c r="B49" s="16"/>
       <c r="C49" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I49" s="8">
         <v>45028</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L49" s="20" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M49" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -6624,28 +6694,28 @@
       </c>
       <c r="B50" s="16"/>
       <c r="C50" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I50" s="8">
         <v>45028</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K50" s="7"/>
       <c r="L50" s="20"/>
@@ -6657,28 +6727,28 @@
       </c>
       <c r="B51" s="16"/>
       <c r="C51" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I51" s="8">
         <v>45028</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K51" s="7"/>
       <c r="L51" s="20"/>
@@ -6689,31 +6759,31 @@
         <v>48</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I52" s="8">
         <v>45028</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K52" s="7"/>
       <c r="L52" s="20"/>
@@ -6725,28 +6795,28 @@
       </c>
       <c r="B53" s="16"/>
       <c r="C53" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I53" s="8">
         <v>45028</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K53" s="7"/>
       <c r="L53" s="20"/>
@@ -6757,31 +6827,31 @@
         <v>50</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I54" s="8">
         <v>45028</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K54" s="7"/>
       <c r="L54" s="20"/>
@@ -6793,28 +6863,28 @@
       </c>
       <c r="B55" s="16"/>
       <c r="C55" s="17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I55" s="8">
         <v>45028</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K55" s="7"/>
       <c r="L55" s="20"/>
@@ -6826,28 +6896,28 @@
       </c>
       <c r="B56" s="16"/>
       <c r="C56" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I56" s="8">
         <v>45028</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K56" s="7"/>
       <c r="L56" s="20"/>
@@ -6859,28 +6929,28 @@
       </c>
       <c r="B57" s="16"/>
       <c r="C57" s="18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I57" s="8">
         <v>45028</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K57" s="7"/>
       <c r="L57" s="20"/>
@@ -6892,28 +6962,28 @@
       </c>
       <c r="B58" s="16"/>
       <c r="C58" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I58" s="8">
         <v>45028</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K58" s="7"/>
       <c r="L58" s="20"/>
@@ -6925,28 +6995,28 @@
       </c>
       <c r="B59" s="16"/>
       <c r="C59" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I59" s="8">
         <v>45028</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K59" s="7"/>
       <c r="L59" s="20"/>
@@ -7814,13 +7884,13 @@
   <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.125" style="10" customWidth="1"/>
     <col min="4" max="4" width="53.875" style="10" customWidth="1"/>
     <col min="5" max="5" width="53.625" style="10" customWidth="1"/>
@@ -7895,19 +7965,29 @@
         <v>12</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K5" s="6"/>
       <c r="L5" s="20"/>
     </row>
@@ -7917,22 +7997,32 @@
         <v>2</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="5"/>
       <c r="K6" s="7"/>
       <c r="L6" s="20"/>
     </row>
@@ -7943,19 +8033,29 @@
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K7" s="7"/>
       <c r="L7" s="20"/>
     </row>
@@ -7966,19 +8066,29 @@
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K8" s="7"/>
       <c r="L8" s="20"/>
     </row>
@@ -7988,22 +8098,32 @@
         <v>5</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="5"/>
       <c r="K9" s="7"/>
       <c r="L9" s="20"/>
     </row>
@@ -8014,19 +8134,29 @@
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K10" s="7"/>
       <c r="L10" s="20"/>
     </row>
@@ -8037,19 +8167,29 @@
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K11" s="7"/>
       <c r="L11" s="20"/>
     </row>
@@ -9645,20 +9785,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10FE740-09D2-4099-B159-10FF78A4DE06}">
   <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.125" style="10" customWidth="1"/>
     <col min="4" max="4" width="53.875" style="10" customWidth="1"/>
     <col min="5" max="5" width="53.625" style="10" customWidth="1"/>
     <col min="6" max="8" width="12.75" style="3" customWidth="1"/>
     <col min="9" max="10" width="11.75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="44.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="44.375" style="2" customWidth="1"/>
     <col min="12" max="12" width="29.125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9680,7 +9820,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="15"/>
     </row>
-    <row r="4" spans="1:12" s="13" customFormat="1" ht="22.5">
+    <row r="4" spans="1:12" s="13" customFormat="1" ht="15.75">
       <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
@@ -9724,22 +9864,32 @@
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K5" s="6"/>
       <c r="L5" s="20"/>
     </row>
@@ -9750,19 +9900,29 @@
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K6" s="7"/>
       <c r="L6" s="20"/>
     </row>
@@ -9773,42 +9933,62 @@
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="5"/>
+      <c r="F7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K7" s="7"/>
       <c r="L7" s="20"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" ht="36.75">
       <c r="A8" s="4">
         <f>ROW()-4</f>
         <v>4</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K8" s="7"/>
       <c r="L8" s="20"/>
     </row>
@@ -9819,19 +9999,29 @@
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K9" s="7"/>
       <c r="L9" s="20"/>
     </row>
@@ -9841,22 +10031,32 @@
         <v>6</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K10" s="7"/>
       <c r="L10" s="20"/>
     </row>
@@ -9867,19 +10067,29 @@
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K11" s="7"/>
       <c r="L11" s="20"/>
     </row>
@@ -9890,42 +10100,62 @@
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K12" s="7"/>
       <c r="L12" s="20"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" ht="36.75">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K13" s="7"/>
       <c r="L13" s="20"/>
     </row>
@@ -9936,19 +10166,29 @@
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K14" s="7"/>
       <c r="L14" s="20"/>
     </row>
@@ -9957,22 +10197,32 @@
         <v>9</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="5"/>
+        <v>65</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K15" s="7"/>
       <c r="L15" s="20"/>
     </row>
@@ -9983,19 +10233,29 @@
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K16" s="7"/>
       <c r="L16" s="20"/>
     </row>
@@ -10006,42 +10266,62 @@
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K17" s="7"/>
       <c r="L17" s="20"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" ht="36.75">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K18" s="7"/>
       <c r="L18" s="20"/>
     </row>
@@ -10052,19 +10332,29 @@
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K19" s="7"/>
       <c r="L19" s="20"/>
     </row>
@@ -10074,22 +10364,32 @@
         <v>16</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K20" s="7"/>
       <c r="L20" s="20"/>
     </row>
@@ -10100,19 +10400,29 @@
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K21" s="7"/>
       <c r="L21" s="20"/>
     </row>
@@ -10123,42 +10433,62 @@
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K22" s="7"/>
       <c r="L22" s="20"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" ht="36.75">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K23" s="7"/>
       <c r="L23" s="20"/>
     </row>
@@ -10169,19 +10499,29 @@
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K24" s="7"/>
       <c r="L24" s="20"/>
     </row>
@@ -10191,68 +10531,98 @@
         <v>21</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K25" s="7"/>
       <c r="L25" s="20"/>
     </row>
-    <row r="26" spans="1:12" ht="55.5">
+    <row r="26" spans="1:12" ht="73.5">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K26" s="19"/>
       <c r="L26" s="20"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" ht="36.75">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K27" s="7"/>
       <c r="L27" s="20"/>
     </row>
@@ -10263,19 +10633,29 @@
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K28" s="19"/>
       <c r="L28" s="20"/>
     </row>
@@ -10285,22 +10665,32 @@
         <v>25</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K29" s="7"/>
       <c r="L29" s="20"/>
     </row>
@@ -10311,42 +10701,62 @@
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K30" s="7"/>
       <c r="L30" s="20"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" ht="36.75">
       <c r="A31" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K31" s="7"/>
       <c r="L31" s="20"/>
     </row>
@@ -10357,19 +10767,29 @@
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="5"/>
+        <v>94</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K32" s="7"/>
       <c r="L32" s="20"/>
     </row>
@@ -10380,44 +10800,64 @@
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K33" s="7"/>
       <c r="L33" s="20"/>
     </row>
-    <row r="34" spans="1:12" ht="36.75">
+    <row r="34" spans="1:12" ht="55.5">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K34" s="7"/>
       <c r="L34" s="20"/>
     </row>
@@ -10427,45 +10867,65 @@
         <v>31</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="5"/>
+        <v>100</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K35" s="7"/>
       <c r="L35" s="20"/>
     </row>
-    <row r="36" spans="1:12" ht="36.75">
+    <row r="36" spans="1:12" ht="55.5">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="5"/>
+        <v>102</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K36" s="7"/>
       <c r="L36" s="20"/>
     </row>
@@ -10476,19 +10936,29 @@
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="5"/>
+        <v>104</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K37" s="7"/>
       <c r="L37" s="20"/>
     </row>
@@ -10498,19 +10968,29 @@
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K38" s="19"/>
       <c r="L38" s="20"/>
     </row>
@@ -10520,22 +11000,32 @@
         <v>35</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="5"/>
+        <v>108</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K39" s="7"/>
       <c r="L39" s="20"/>
     </row>
@@ -10546,19 +11036,29 @@
       </c>
       <c r="B40" s="16"/>
       <c r="C40" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="5"/>
+        <v>111</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K40" s="7"/>
       <c r="L40" s="20"/>
     </row>
@@ -10569,67 +11069,97 @@
       </c>
       <c r="B41" s="16"/>
       <c r="C41" s="18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K41" s="7"/>
       <c r="L41" s="20"/>
     </row>
-    <row r="42" spans="1:12" ht="36.75">
+    <row r="42" spans="1:12" ht="55.5">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K42" s="7"/>
       <c r="L42" s="20"/>
     </row>
-    <row r="43" spans="1:12" ht="36.75">
+    <row r="43" spans="1:12" ht="55.5">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K43" s="7"/>
       <c r="L43" s="20"/>
     </row>
@@ -10640,42 +11170,62 @@
       </c>
       <c r="B44" s="16"/>
       <c r="C44" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="5"/>
+        <v>119</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K44" s="7"/>
       <c r="L44" s="20"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" ht="36.75">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K45" s="7"/>
       <c r="L45" s="20"/>
     </row>
@@ -10686,19 +11236,29 @@
       </c>
       <c r="B46" s="16"/>
       <c r="C46" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K46" s="7"/>
       <c r="L46" s="20"/>
     </row>
@@ -10708,68 +11268,98 @@
         <v>43</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="5"/>
+        <v>124</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K47" s="7"/>
       <c r="L47" s="20"/>
     </row>
-    <row r="48" spans="1:12" ht="55.5">
+    <row r="48" spans="1:12" ht="73.5">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="5"/>
+        <v>126</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K48" s="7"/>
       <c r="L48" s="20"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" ht="36.75">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B49" s="16"/>
       <c r="C49" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K49" s="7"/>
       <c r="L49" s="20"/>
     </row>
@@ -10780,19 +11370,29 @@
       </c>
       <c r="B50" s="16"/>
       <c r="C50" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K50" s="7"/>
       <c r="L50" s="20"/>
     </row>
@@ -10802,22 +11402,32 @@
         <v>47</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K51" s="7"/>
       <c r="L51" s="20"/>
     </row>
@@ -10827,45 +11437,65 @@
         <v>48</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="5"/>
+        <v>134</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K52" s="7"/>
       <c r="L52" s="20"/>
     </row>
-    <row r="53" spans="1:12" ht="36.75">
+    <row r="53" spans="1:12" ht="55.5">
       <c r="A53" s="4">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B53" s="16"/>
       <c r="C53" s="17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="5"/>
+        <v>137</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K53" s="7"/>
       <c r="L53" s="20"/>
     </row>
@@ -10876,19 +11506,29 @@
       </c>
       <c r="B54" s="16"/>
       <c r="C54" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>136</v>
+        <v>25</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>138</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="5"/>
+        <v>139</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K54" s="7"/>
       <c r="L54" s="20"/>
     </row>
@@ -10899,42 +11539,62 @@
       </c>
       <c r="B55" s="16"/>
       <c r="C55" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J55" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="5"/>
       <c r="K55" s="7"/>
       <c r="L55" s="20"/>
     </row>
-    <row r="56" spans="1:12" ht="55.5">
+    <row r="56" spans="1:12" ht="73.5">
       <c r="A56" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B56" s="16"/>
       <c r="C56" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K56" s="7"/>
       <c r="L56" s="20"/>
     </row>
@@ -10945,19 +11605,29 @@
       </c>
       <c r="B57" s="16"/>
       <c r="C57" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="5"/>
+        <v>143</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K57" s="7"/>
       <c r="L57" s="20"/>
     </row>
@@ -11824,13 +12494,13 @@
   <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:E8"/>
+      <selection activeCell="F5" sqref="F5:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="12.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.125" style="10" customWidth="1"/>
     <col min="4" max="4" width="53.875" style="10" customWidth="1"/>
     <col min="5" max="5" width="53.625" style="10" customWidth="1"/>
@@ -11905,19 +12575,29 @@
         <v>12</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="5"/>
+        <v>145</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K5" s="6"/>
       <c r="L5" s="20"/>
     </row>
@@ -11927,22 +12607,32 @@
         <v>2</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="5"/>
       <c r="K6" s="7"/>
       <c r="L6" s="20"/>
     </row>
@@ -11953,19 +12643,29 @@
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K7" s="7"/>
       <c r="L7" s="20"/>
     </row>
@@ -11976,19 +12676,29 @@
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K8" s="7"/>
       <c r="L8" s="20"/>
     </row>
@@ -13637,13 +14347,13 @@
   <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F5" sqref="F5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.125" style="10" customWidth="1"/>
     <col min="4" max="4" width="53.875" style="10" customWidth="1"/>
     <col min="5" max="5" width="53.625" style="10" customWidth="1"/>
@@ -13718,19 +14428,29 @@
         <v>12</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="5"/>
+        <v>146</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K5" s="6"/>
       <c r="L5" s="20"/>
     </row>
@@ -13740,22 +14460,32 @@
         <v>2</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="5"/>
       <c r="K6" s="7"/>
       <c r="L6" s="20"/>
     </row>
@@ -13766,19 +14496,29 @@
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K7" s="7"/>
       <c r="L7" s="20"/>
     </row>
@@ -13789,19 +14529,29 @@
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="5"/>
+        <v>147</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K8" s="7"/>
       <c r="L8" s="20"/>
     </row>
@@ -13811,22 +14561,32 @@
         <v>5</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="5"/>
       <c r="K9" s="7"/>
       <c r="L9" s="20"/>
     </row>
@@ -13837,19 +14597,29 @@
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K10" s="7"/>
       <c r="L10" s="20"/>
     </row>
@@ -13860,19 +14630,29 @@
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="5"/>
+        <v>152</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K11" s="7"/>
       <c r="L11" s="20"/>
     </row>
@@ -15469,13 +16249,13 @@
   <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="F5" sqref="F5:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.125" style="10" customWidth="1"/>
     <col min="4" max="4" width="53.875" style="10" customWidth="1"/>
     <col min="5" max="5" width="53.625" style="10" customWidth="1"/>
@@ -15550,19 +16330,29 @@
         <v>12</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K5" s="6"/>
       <c r="L5" s="20"/>
     </row>
@@ -15572,22 +16362,32 @@
         <v>2</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="5"/>
       <c r="K6" s="7"/>
       <c r="L6" s="20"/>
     </row>
@@ -15598,19 +16398,29 @@
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K7" s="7"/>
       <c r="L7" s="20"/>
     </row>
@@ -15621,19 +16431,29 @@
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="5"/>
+        <v>147</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="K8" s="7"/>
       <c r="L8" s="20"/>
     </row>
@@ -17280,14 +18100,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4A1231-2B5D-4A6B-A443-53E1D4266F52}">
   <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.125" style="10" customWidth="1"/>
     <col min="4" max="4" width="53.875" style="10" customWidth="1"/>
     <col min="5" max="5" width="53.625" style="10" customWidth="1"/>
@@ -17362,28 +18182,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I5" s="8">
         <v>45058</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="20"/>
@@ -17394,31 +18214,31 @@
         <v>2</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I6" s="8">
         <v>45058</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="20"/>
@@ -17430,28 +18250,28 @@
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I7" s="8">
         <v>45058</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="20"/>
@@ -17463,28 +18283,28 @@
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I8" s="8">
         <v>45058</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="20"/>
@@ -17495,31 +18315,31 @@
         <v>5</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I9" s="8">
         <v>45058</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="20"/>
@@ -17531,28 +18351,28 @@
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I10" s="8">
         <v>45058</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="20"/>
@@ -17564,28 +18384,28 @@
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I11" s="8">
         <v>45058</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="20"/>
@@ -19182,14 +20002,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F3368F-FEDE-419F-8F89-AA2E8DA09032}">
   <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.125" style="10" customWidth="1"/>
     <col min="4" max="4" width="53.875" style="10" customWidth="1"/>
     <col min="5" max="5" width="53.625" style="10" customWidth="1"/>
@@ -19261,31 +20081,31 @@
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I5" s="8">
         <v>45028</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="20"/>
@@ -19297,28 +20117,28 @@
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I6" s="8">
         <v>45028</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="20"/>
@@ -19330,34 +20150,34 @@
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I7" s="8">
         <v>45028</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -19367,28 +20187,28 @@
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I8" s="8">
         <v>45037</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="20"/>
@@ -19399,31 +20219,31 @@
         <v>5</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I9" s="8">
         <v>45028</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="20"/>
@@ -21078,13 +21898,13 @@
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.125" style="10" customWidth="1"/>
     <col min="4" max="4" width="53.875" style="10" customWidth="1"/>
     <col min="5" max="5" width="53.625" style="10" customWidth="1"/>
     <col min="6" max="8" width="12.75" style="3" customWidth="1"/>
     <col min="9" max="10" width="11.75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="44.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="44.375" style="2" customWidth="1"/>
     <col min="12" max="12" width="29.125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -21150,37 +21970,37 @@
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I5" s="8">
         <v>45028</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="36.75">
@@ -21189,31 +22009,31 @@
         <v>2</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I6" s="8">
         <v>45028</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="20"/>
@@ -21225,28 +22045,28 @@
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I7" s="8">
         <v>45028</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="20"/>
@@ -21258,28 +22078,28 @@
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I8" s="8">
         <v>45028</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="20"/>

--- a/test_case/unit-test-case_v3.xlsx
+++ b/test_case/unit-test-case_v3.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26616"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\plus_pm_jp\wp-content\uploads\blog\test-case-excel-unit-test\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A445F8EB-C718-44AD-ACCD-775EFA75DF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{464E11F5-399B-4B27-905D-25940754A043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="1260" windowWidth="22725" windowHeight="14040" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="1260" windowWidth="22725" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="更新完了画面" sheetId="15" r:id="rId1"/>
-    <sheet name="更新確認画面" sheetId="14" r:id="rId2"/>
-    <sheet name="更新画面" sheetId="13" r:id="rId3"/>
-    <sheet name="削除完了画面" sheetId="12" r:id="rId4"/>
-    <sheet name="削除確認画面" sheetId="11" r:id="rId5"/>
-    <sheet name="削除画面" sheetId="10" r:id="rId6"/>
-    <sheet name="一覧画面" sheetId="9" r:id="rId7"/>
-    <sheet name="DB登録エラー画面" sheetId="7" r:id="rId8"/>
-    <sheet name="完了画面" sheetId="6" r:id="rId9"/>
-    <sheet name="確認画面" sheetId="5" r:id="rId10"/>
-    <sheet name="登録画面" sheetId="4" r:id="rId11"/>
+    <sheet name="エラー画面" sheetId="16" r:id="rId1"/>
+    <sheet name="更新完了画面" sheetId="15" r:id="rId2"/>
+    <sheet name="更新確認画面" sheetId="14" r:id="rId3"/>
+    <sheet name="更新画面" sheetId="13" r:id="rId4"/>
+    <sheet name="削除完了画面" sheetId="12" r:id="rId5"/>
+    <sheet name="削除確認画面" sheetId="11" r:id="rId6"/>
+    <sheet name="削除画面" sheetId="10" r:id="rId7"/>
+    <sheet name="一覧画面" sheetId="9" r:id="rId8"/>
+    <sheet name="DB登録エラー画面" sheetId="7" r:id="rId9"/>
+    <sheet name="完了画面" sheetId="6" r:id="rId10"/>
+    <sheet name="確認画面" sheetId="5" r:id="rId11"/>
+    <sheet name="登録画面" sheetId="4" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="215">
   <si>
     <t>テストID</t>
   </si>
@@ -88,13 +89,13 @@
     <t>画面表示</t>
   </si>
   <si>
-    <t>エラー時のテキストが表示されているか</t>
+    <t>テキストが表示されているか</t>
   </si>
   <si>
     <t>1.画面内のテキストを目視する</t>
   </si>
   <si>
-    <t>「エラーが発生したためアカウント更新できません。」のテキストが赤字で表示される</t>
+    <t>「エラー画面」のテキストが赤字で表示される</t>
   </si>
   <si>
     <t>OK</t>
@@ -133,6 +134,12 @@
   </si>
   <si>
     <t>アカウント削除画面「index.php」へ遷移する。</t>
+  </si>
+  <si>
+    <t>エラー時のテキストが表示されているか</t>
+  </si>
+  <si>
+    <t>「エラーが発生したためアカウント更新できません。」のテキストが赤字で表示される</t>
   </si>
   <si>
     <t>項目名が適切に表示されているか</t>
@@ -534,9 +541,6 @@
   </si>
   <si>
     <t>アカウント更新画面「update_confirm.php」へ遷移する。</t>
-  </si>
-  <si>
-    <t>テキストが表示されているか</t>
   </si>
   <si>
     <t>「削除完了しました」のテキストが画面中央に大きく表示される</t>
@@ -1286,11 +1290,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47A473B-AF42-49A1-B26A-9682AD7C7703}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2B3CF5-0787-4B6D-BB47-C6CF6D41933A}">
   <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1362,7 +1366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="36.75">
+    <row r="5" spans="1:12">
       <c r="A5" s="4">
         <f>ROW()-4</f>
         <v>1</v>
@@ -1389,7 +1393,7 @@
         <v>16</v>
       </c>
       <c r="I5" s="8">
-        <v>45093</v>
+        <v>45098</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>17</v>
@@ -1424,7 +1428,7 @@
         <v>16</v>
       </c>
       <c r="I6" s="8">
-        <v>45093</v>
+        <v>45098</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>17</v>
@@ -1457,7 +1461,7 @@
         <v>16</v>
       </c>
       <c r="I7" s="8">
-        <v>45093</v>
+        <v>45098</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>17</v>
@@ -1490,7 +1494,7 @@
         <v>16</v>
       </c>
       <c r="I8" s="8">
-        <v>45093</v>
+        <v>45098</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>17</v>
@@ -3131,13 +3135,1869 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:C4" xr:uid="{7E6A6DBA-457D-4166-A70B-0C676C647E75}"/>
+    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:C4" xr:uid="{CD7BDE5A-AFA6-4CAC-82DB-D1F9FF3EBC7A}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890A58AD-036D-485B-A457-79A622266E3B}">
+  <dimension ref="A1:L104"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="9.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="53.875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="53.625" style="10" customWidth="1"/>
+    <col min="6" max="8" width="12.75" style="3" customWidth="1"/>
+    <col min="9" max="10" width="11.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="44.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="29.125" style="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1"/>
+      <c r="B1" s="15"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1"/>
+      <c r="B2" s="15"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1"/>
+      <c r="B3" s="15"/>
+    </row>
+    <row r="4" spans="1:12" s="13" customFormat="1" ht="22.5">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="36.75">
+      <c r="A5" s="4">
+        <f>ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="I5" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="36.75">
+      <c r="A6" s="4">
+        <f t="shared" ref="A6:A70" si="0">ROW()-4</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" spans="1:12" ht="73.5">
+      <c r="A7" s="4">
+        <f>ROW()-4</f>
+        <v>3</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="8">
+        <v>45028</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="20"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="20"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="20"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="20"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="20"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="20"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="20"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="20"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="20"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="20"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="20"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="20"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="20"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="4">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="20"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="20"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="20"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="20"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="20"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="20"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="20"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="20"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="4">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="20"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="4">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="20"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="4">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="20"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="4">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B38" s="16"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="20"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="20"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="4">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="20"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="4">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B41" s="16"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="20"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="4">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B42" s="16"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="20"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="4">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B43" s="16"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="20"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="20"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="4">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B45" s="16"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="20"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="4">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B46" s="16"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="20"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="4">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B47" s="16"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="20"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="4">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B48" s="16"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="20"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="4">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B49" s="16"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="20"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="4">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B50" s="16"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="20"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="4">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B51" s="16"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="20"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="4">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B52" s="16"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="20"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="4">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B53" s="16"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="20"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B54" s="16"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="20"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="4">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B55" s="16"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="20"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="4">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B56" s="16"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="20"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="4">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B57" s="16"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="20"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="4">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B58" s="16"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="20"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="4">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B59" s="16"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="20"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="4">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B60" s="16"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="20"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="4">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B61" s="16"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="20"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="4">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B62" s="16"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="20"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="4">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B63" s="16"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="20"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="4">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B64" s="16"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="20"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="4">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B65" s="16"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="20"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="4">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B66" s="16"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="20"/>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="4">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B67" s="16"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="20"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="4">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B68" s="16"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="20"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="4">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B69" s="16"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="20"/>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="4">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B70" s="16"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="20"/>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="4">
+        <f t="shared" ref="A71:A104" si="1">ROW()-4</f>
+        <v>67</v>
+      </c>
+      <c r="B71" s="16"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="20"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="4">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B72" s="16"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="20"/>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="4">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B73" s="16"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="20"/>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="4">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B74" s="16"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="20"/>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="4">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B75" s="16"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="20"/>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="4">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B76" s="16"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="20"/>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="4">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B77" s="16"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="20"/>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="4">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B78" s="16"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="20"/>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="4">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B79" s="16"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="20"/>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="4">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B80" s="16"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="20"/>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="4">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B81" s="16"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="20"/>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="4">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B82" s="16"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="20"/>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="4">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B83" s="16"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="20"/>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="4">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B84" s="16"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="20"/>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="4">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B85" s="16"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="20"/>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="4">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B86" s="16"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="20"/>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="4">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B87" s="16"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="20"/>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="4">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B88" s="16"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="20"/>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="4">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B89" s="16"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="20"/>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="4">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B90" s="16"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="20"/>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="4">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B91" s="16"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="20"/>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="4">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B92" s="16"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="20"/>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="4">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B93" s="16"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="20"/>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="4">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B94" s="16"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="20"/>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="4">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B95" s="16"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="20"/>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="4">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B96" s="16"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="20"/>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="4">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B97" s="16"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="20"/>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" s="4">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B98" s="16"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="20"/>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="4">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B99" s="16"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="20"/>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="4">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B100" s="16"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="20"/>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="4">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B101" s="16"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="20"/>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" s="4">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B102" s="16"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="20"/>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" s="4">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B103" s="16"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="20"/>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B104" s="16"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="20"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:C4" xr:uid="{98F0D596-6A6A-4296-9969-6DFE7B0BA08C}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0251EFA2-F071-424F-9191-E7B3DB25F7DC}">
   <dimension ref="A1:L104"/>
   <sheetViews>
@@ -3220,13 +5080,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>21</v>
@@ -3259,7 +5119,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>24</v>
@@ -3292,10 +5152,10 @@
         <v>25</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>16</v>
@@ -3321,13 +5181,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>21</v>
@@ -3360,7 +5220,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>24</v>
@@ -3393,10 +5253,10 @@
         <v>25</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>16</v>
@@ -5021,7 +6881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA9AF38-7352-4E06-B242-52066A65ADD8}">
   <dimension ref="A1:M109"/>
   <sheetViews>
@@ -5104,16 +6964,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>16</v>
@@ -5140,13 +7000,13 @@
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>16</v>
@@ -5173,22 +7033,22 @@
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="F7" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I7" s="8">
         <v>45037</v>
@@ -5197,10 +7057,10 @@
         <v>17</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M7" t="s">
         <v>16</v>
@@ -5213,13 +7073,13 @@
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>16</v>
@@ -5246,13 +7106,13 @@
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>16</v>
@@ -5278,16 +7138,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>16</v>
@@ -5314,13 +7174,13 @@
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>16</v>
@@ -5347,22 +7207,22 @@
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I12" s="8">
         <v>45037</v>
@@ -5371,10 +7231,10 @@
         <v>17</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M12" t="s">
         <v>16</v>
@@ -5387,13 +7247,13 @@
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>16</v>
@@ -5420,13 +7280,13 @@
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>16</v>
@@ -5451,16 +7311,16 @@
         <v>9</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>16</v>
@@ -5487,13 +7347,13 @@
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>16</v>
@@ -5520,22 +7380,22 @@
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I17" s="8">
         <v>45037</v>
@@ -5544,10 +7404,10 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s">
         <v>16</v>
@@ -5560,13 +7420,13 @@
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>16</v>
@@ -5593,22 +7453,22 @@
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I19" s="8">
         <v>45028</v>
@@ -5617,10 +7477,10 @@
         <v>17</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M19" t="s">
         <v>16</v>
@@ -5632,16 +7492,16 @@
         <v>16</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>16</v>
@@ -5668,13 +7528,13 @@
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>16</v>
@@ -5701,22 +7561,22 @@
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I22" s="8">
         <v>45037</v>
@@ -5725,10 +7585,10 @@
         <v>17</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M22" t="s">
         <v>16</v>
@@ -5741,13 +7601,13 @@
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>16</v>
@@ -5774,22 +7634,22 @@
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I24" s="8">
         <v>45028</v>
@@ -5798,10 +7658,10 @@
         <v>17</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L24" s="20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M24" t="s">
         <v>16</v>
@@ -5813,16 +7673,16 @@
         <v>21</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>16</v>
@@ -5849,22 +7709,22 @@
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I26" s="8">
         <v>45028</v>
@@ -5873,10 +7733,10 @@
         <v>17</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M26" t="s">
         <v>16</v>
@@ -5889,13 +7749,13 @@
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>16</v>
@@ -5922,22 +7782,22 @@
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I28" s="8">
         <v>45028</v>
@@ -5946,10 +7806,10 @@
         <v>17</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M28" t="s">
         <v>16</v>
@@ -5961,16 +7821,16 @@
         <v>25</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>16</v>
@@ -5997,13 +7857,13 @@
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>16</v>
@@ -6030,13 +7890,13 @@
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>16</v>
@@ -6063,13 +7923,13 @@
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>16</v>
@@ -6096,13 +7956,13 @@
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>16</v>
@@ -6128,16 +7988,16 @@
         <v>30</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>16</v>
@@ -6164,13 +8024,13 @@
       </c>
       <c r="B35" s="16"/>
       <c r="C35" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>16</v>
@@ -6196,16 +8056,16 @@
         <v>32</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>16</v>
@@ -6232,13 +8092,13 @@
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>16</v>
@@ -6265,13 +8125,13 @@
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>16</v>
@@ -6297,22 +8157,22 @@
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I39" s="8">
         <v>45028</v>
@@ -6321,10 +8181,10 @@
         <v>17</v>
       </c>
       <c r="K39" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L39" s="20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M39" t="s">
         <v>16</v>
@@ -6336,16 +8196,16 @@
         <v>36</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>16</v>
@@ -6372,13 +8232,13 @@
       </c>
       <c r="B41" s="16"/>
       <c r="C41" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>16</v>
@@ -6405,22 +8265,22 @@
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I42" s="8">
         <v>45037</v>
@@ -6429,10 +8289,10 @@
         <v>17</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L42" s="20" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M42" t="s">
         <v>16</v>
@@ -6445,13 +8305,13 @@
       </c>
       <c r="B43" s="16"/>
       <c r="C43" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>16</v>
@@ -6477,16 +8337,16 @@
         <v>40</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>16</v>
@@ -6513,22 +8373,22 @@
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I45" s="8">
         <v>45028</v>
@@ -6537,10 +8397,10 @@
         <v>17</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L45" s="20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M45" t="s">
         <v>16</v>
@@ -6553,13 +8413,13 @@
       </c>
       <c r="B46" s="16"/>
       <c r="C46" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>16</v>
@@ -6586,13 +8446,13 @@
       </c>
       <c r="B47" s="16"/>
       <c r="C47" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>16</v>
@@ -6618,16 +8478,16 @@
         <v>44</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>16</v>
@@ -6654,22 +8514,22 @@
       </c>
       <c r="B49" s="16"/>
       <c r="C49" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I49" s="8">
         <v>45028</v>
@@ -6678,10 +8538,10 @@
         <v>17</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L49" s="20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M49" t="s">
         <v>16</v>
@@ -6694,13 +8554,13 @@
       </c>
       <c r="B50" s="16"/>
       <c r="C50" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>16</v>
@@ -6727,13 +8587,13 @@
       </c>
       <c r="B51" s="16"/>
       <c r="C51" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>16</v>
@@ -6759,16 +8619,16 @@
         <v>48</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>16</v>
@@ -6795,13 +8655,13 @@
       </c>
       <c r="B53" s="16"/>
       <c r="C53" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>16</v>
@@ -6827,16 +8687,16 @@
         <v>50</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>16</v>
@@ -6863,13 +8723,13 @@
       </c>
       <c r="B55" s="16"/>
       <c r="C55" s="17" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>16</v>
@@ -6899,10 +8759,10 @@
         <v>25</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>16</v>
@@ -6932,7 +8792,7 @@
         <v>19</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>21</v>
@@ -6965,7 +8825,7 @@
         <v>22</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>24</v>
@@ -6998,10 +8858,10 @@
         <v>25</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>16</v>
@@ -7880,11 +9740,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CA9791-55EE-4AE9-8BD4-20FD0ADBF80E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47A473B-AF42-49A1-B26A-9682AD7C7703}">
   <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7956,7 +9816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="73.5">
+    <row r="5" spans="1:12" ht="36.75">
       <c r="A5" s="4">
         <f>ROW()-4</f>
         <v>1</v>
@@ -7968,10 +9828,10 @@
         <v>28</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>16</v>
@@ -7997,13 +9857,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>21</v>
@@ -8036,7 +9896,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>24</v>
@@ -8069,10 +9929,10 @@
         <v>25</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>16</v>
@@ -8092,104 +9952,54 @@
       <c r="K8" s="7"/>
       <c r="L8" s="20"/>
     </row>
-    <row r="9" spans="1:12" ht="36.75">
+    <row r="9" spans="1:12">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="8">
-        <v>45093</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="5"/>
       <c r="K9" s="7"/>
       <c r="L9" s="20"/>
     </row>
-    <row r="10" spans="1:12" ht="55.5">
+    <row r="10" spans="1:12">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B10" s="16"/>
-      <c r="C10" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="8">
-        <v>45093</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="5"/>
       <c r="K10" s="7"/>
       <c r="L10" s="20"/>
     </row>
-    <row r="11" spans="1:12" ht="36.75">
+    <row r="11" spans="1:12">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B11" s="16"/>
-      <c r="C11" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="8">
-        <v>45093</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="5"/>
       <c r="K11" s="7"/>
       <c r="L11" s="20"/>
     </row>
@@ -9775,18 +11585,1920 @@
     </row>
   </sheetData>
   <dataValidations count="1">
+    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:C4" xr:uid="{7E6A6DBA-457D-4166-A70B-0C676C647E75}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CA9791-55EE-4AE9-8BD4-20FD0ADBF80E}">
+  <dimension ref="A1:L104"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="9.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="53.875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="53.625" style="10" customWidth="1"/>
+    <col min="6" max="8" width="12.75" style="3" customWidth="1"/>
+    <col min="9" max="10" width="11.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20.25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="29.125" style="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1"/>
+      <c r="B1" s="15"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1"/>
+      <c r="B2" s="15"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1"/>
+      <c r="B3" s="15"/>
+    </row>
+    <row r="4" spans="1:12" s="13" customFormat="1" ht="22.5">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="73.5">
+      <c r="A5" s="4">
+        <f>ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="20"/>
+    </row>
+    <row r="6" spans="1:12" ht="36.75">
+      <c r="A6" s="4">
+        <f t="shared" ref="A6:A70" si="0">ROW()-4</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" spans="1:12" ht="55.5">
+      <c r="A7" s="4">
+        <f>ROW()-4</f>
+        <v>3</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="20"/>
+    </row>
+    <row r="9" spans="1:12" ht="36.75">
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="20"/>
+    </row>
+    <row r="10" spans="1:12" ht="55.5">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" spans="1:12" ht="36.75">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="8">
+        <v>45093</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="20"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="20"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="20"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="20"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="16"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="20"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="20"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="20"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="20"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="20"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="20"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="20"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="4">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="20"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="20"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="20"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="20"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="20"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="20"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="20"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="20"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="4">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="20"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="4">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="20"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="4">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="20"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="4">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B38" s="16"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="20"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="20"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="4">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="20"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="4">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B41" s="16"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="20"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="4">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B42" s="16"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="20"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="4">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B43" s="16"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="20"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="20"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="4">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B45" s="16"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="20"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="4">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B46" s="16"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="20"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="4">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B47" s="16"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="20"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="4">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B48" s="16"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="20"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="4">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B49" s="16"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="20"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="4">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B50" s="16"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="20"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="4">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B51" s="16"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="20"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="4">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B52" s="16"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="20"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="4">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B53" s="16"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="20"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B54" s="16"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="20"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="4">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B55" s="16"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="20"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="4">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B56" s="16"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="20"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="4">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B57" s="16"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="20"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="4">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B58" s="16"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="20"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="4">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B59" s="16"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="20"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="4">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B60" s="16"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="20"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="4">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B61" s="16"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="20"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="4">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B62" s="16"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="20"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="4">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B63" s="16"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="20"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="4">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B64" s="16"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="20"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="4">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B65" s="16"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="20"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="4">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B66" s="16"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="20"/>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="4">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B67" s="16"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="20"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="4">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B68" s="16"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="20"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="4">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B69" s="16"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="20"/>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="4">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B70" s="16"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="20"/>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="4">
+        <f t="shared" ref="A71:A104" si="1">ROW()-4</f>
+        <v>67</v>
+      </c>
+      <c r="B71" s="16"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="20"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="4">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B72" s="16"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="20"/>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="4">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B73" s="16"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="20"/>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="4">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B74" s="16"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="20"/>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="4">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B75" s="16"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="20"/>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="4">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B76" s="16"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="20"/>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="4">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B77" s="16"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="20"/>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="4">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B78" s="16"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="20"/>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="4">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B79" s="16"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="20"/>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="4">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B80" s="16"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="20"/>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="4">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B81" s="16"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="20"/>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="4">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B82" s="16"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="20"/>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="4">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B83" s="16"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="20"/>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="4">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B84" s="16"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="20"/>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="4">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B85" s="16"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="20"/>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="4">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B86" s="16"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="20"/>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="4">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B87" s="16"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="20"/>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="4">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B88" s="16"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="20"/>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="4">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B89" s="16"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="20"/>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="4">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B90" s="16"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="20"/>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="4">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B91" s="16"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="20"/>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="4">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B92" s="16"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="20"/>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="4">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B93" s="16"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="20"/>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="4">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B94" s="16"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="20"/>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="4">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B95" s="16"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="20"/>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="4">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B96" s="16"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="20"/>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="4">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B97" s="16"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="20"/>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" s="4">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B98" s="16"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="20"/>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="4">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B99" s="16"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="20"/>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="4">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B100" s="16"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="7"/>
+      <c r="L100" s="20"/>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="4">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B101" s="16"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="20"/>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" s="4">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B102" s="16"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="20"/>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" s="4">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B103" s="16"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="20"/>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B104" s="16"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="20"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
     <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:C4" xr:uid="{3E5143E0-B1C2-4C65-9681-1358AA27E81B}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10FE740-09D2-4099-B159-10FF78A4DE06}">
   <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -9864,16 +13576,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>16</v>
@@ -9900,13 +13612,13 @@
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>16</v>
@@ -9933,13 +13645,13 @@
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>16</v>
@@ -9966,13 +13678,13 @@
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>16</v>
@@ -9999,13 +13711,13 @@
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>16</v>
@@ -10031,16 +13743,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>16</v>
@@ -10067,13 +13779,13 @@
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>16</v>
@@ -10100,13 +13812,13 @@
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>16</v>
@@ -10133,13 +13845,13 @@
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>16</v>
@@ -10166,13 +13878,13 @@
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>16</v>
@@ -10197,16 +13909,16 @@
         <v>9</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>16</v>
@@ -10233,13 +13945,13 @@
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>16</v>
@@ -10266,13 +13978,13 @@
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>16</v>
@@ -10299,13 +14011,13 @@
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>16</v>
@@ -10332,13 +14044,13 @@
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>16</v>
@@ -10364,16 +14076,16 @@
         <v>16</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>16</v>
@@ -10400,13 +14112,13 @@
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>16</v>
@@ -10433,13 +14145,13 @@
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>16</v>
@@ -10466,13 +14178,13 @@
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>16</v>
@@ -10499,13 +14211,13 @@
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>16</v>
@@ -10531,16 +14243,16 @@
         <v>21</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>16</v>
@@ -10567,13 +14279,13 @@
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>16</v>
@@ -10600,13 +14312,13 @@
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>16</v>
@@ -10633,13 +14345,13 @@
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>16</v>
@@ -10665,16 +14377,16 @@
         <v>25</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>16</v>
@@ -10701,13 +14413,13 @@
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>16</v>
@@ -10734,13 +14446,13 @@
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>16</v>
@@ -10767,13 +14479,13 @@
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>16</v>
@@ -10800,13 +14512,13 @@
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>16</v>
@@ -10832,16 +14544,16 @@
         <v>30</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>16</v>
@@ -10867,16 +14579,16 @@
         <v>31</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>16</v>
@@ -10903,13 +14615,13 @@
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>16</v>
@@ -10936,13 +14648,13 @@
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>16</v>
@@ -10968,13 +14680,13 @@
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>16</v>
@@ -11000,16 +14712,16 @@
         <v>35</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>16</v>
@@ -11036,13 +14748,13 @@
       </c>
       <c r="B40" s="16"/>
       <c r="C40" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>16</v>
@@ -11069,13 +14781,13 @@
       </c>
       <c r="B41" s="16"/>
       <c r="C41" s="18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>16</v>
@@ -11102,13 +14814,13 @@
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>16</v>
@@ -11134,16 +14846,16 @@
         <v>39</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>16</v>
@@ -11170,13 +14882,13 @@
       </c>
       <c r="B44" s="16"/>
       <c r="C44" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>16</v>
@@ -11203,13 +14915,13 @@
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>16</v>
@@ -11236,13 +14948,13 @@
       </c>
       <c r="B46" s="16"/>
       <c r="C46" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>16</v>
@@ -11268,16 +14980,16 @@
         <v>43</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>16</v>
@@ -11304,13 +15016,13 @@
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>16</v>
@@ -11337,13 +15049,13 @@
       </c>
       <c r="B49" s="16"/>
       <c r="C49" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>16</v>
@@ -11370,13 +15082,13 @@
       </c>
       <c r="B50" s="16"/>
       <c r="C50" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>16</v>
@@ -11402,16 +15114,16 @@
         <v>47</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>16</v>
@@ -11437,16 +15149,16 @@
         <v>48</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>16</v>
@@ -11473,13 +15185,13 @@
       </c>
       <c r="B53" s="16"/>
       <c r="C53" s="17" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>16</v>
@@ -11509,10 +15221,10 @@
         <v>25</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>16</v>
@@ -11542,7 +15254,7 @@
         <v>19</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>21</v>
@@ -11575,7 +15287,7 @@
         <v>22</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>24</v>
@@ -11608,10 +15320,10 @@
         <v>25</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>16</v>
@@ -12489,7 +16201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533FBAED-5E0D-405C-B579-1226A791468A}">
   <dimension ref="A1:L104"/>
   <sheetViews>
@@ -12575,13 +16287,13 @@
         <v>12</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>16</v>
@@ -14342,7 +18054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D99797-CE74-47AC-9ADA-91699DB165B4}">
   <dimension ref="A1:L104"/>
   <sheetViews>
@@ -14428,13 +18140,13 @@
         <v>12</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>16</v>
@@ -14460,7 +18172,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>19</v>
@@ -14535,7 +18247,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>16</v>
@@ -14561,13 +18273,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>21</v>
@@ -14600,7 +18312,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>24</v>
@@ -14633,10 +18345,10 @@
         <v>25</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>16</v>
@@ -16244,12 +19956,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28C99D9-ABEB-4CB4-82DA-5E9FB93E7E3B}">
   <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:J8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -16330,13 +20042,13 @@
         <v>12</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>16</v>
@@ -16362,13 +20074,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>21</v>
@@ -16401,7 +20113,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>24</v>
@@ -16434,10 +20146,10 @@
         <v>25</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>16</v>
@@ -18096,12 +21808,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4A1231-2B5D-4A6B-A443-53E1D4266F52}">
   <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -18182,13 +21894,13 @@
         <v>12</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>16</v>
@@ -18214,13 +21926,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>21</v>
@@ -18253,7 +21965,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>24</v>
@@ -18286,10 +21998,10 @@
         <v>25</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>16</v>
@@ -18315,13 +22027,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>21</v>
@@ -18354,7 +22066,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>24</v>
@@ -18387,10 +22099,10 @@
         <v>25</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>16</v>
@@ -19998,7 +23710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F3368F-FEDE-419F-8F89-AA2E8DA09032}">
   <dimension ref="A1:L105"/>
   <sheetViews>
@@ -20081,7 +23793,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>19</v>
@@ -20156,7 +23868,7 @@
         <v>26</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>16</v>
@@ -20174,10 +23886,10 @@
         <v>17</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -20193,7 +23905,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>16</v>
@@ -20219,16 +23931,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>16</v>
@@ -21885,1860 +25597,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890A58AD-036D-485B-A457-79A622266E3B}">
-  <dimension ref="A1:L104"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="9.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="53.875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="53.625" style="10" customWidth="1"/>
-    <col min="6" max="8" width="12.75" style="3" customWidth="1"/>
-    <col min="9" max="10" width="11.75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="44.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="29.125" style="21" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1"/>
-      <c r="B1" s="15"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1"/>
-      <c r="B2" s="15"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1"/>
-      <c r="B3" s="15"/>
-    </row>
-    <row r="4" spans="1:12" s="13" customFormat="1" ht="22.5">
-      <c r="A4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="36.75">
-      <c r="A5" s="4">
-        <f>ROW()-4</f>
-        <v>1</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="I5" s="8">
-        <v>45028</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="36.75">
-      <c r="A6" s="4">
-        <f t="shared" ref="A6:A70" si="0">ROW()-4</f>
-        <v>2</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="8">
-        <v>45028</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="20"/>
-    </row>
-    <row r="7" spans="1:12" ht="73.5">
-      <c r="A7" s="4">
-        <f>ROW()-4</f>
-        <v>3</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="8">
-        <v>45028</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="20"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="8">
-        <v>45028</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="20"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="20"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="20"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="4">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="20"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="4">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="20"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="4">
-        <v>9</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="20"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="20"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="4">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="20"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="4">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="20"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="4">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="20"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="4">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="20"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="20"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="4">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="20"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="4">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="20"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="4">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="20"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="4">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="20"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="4">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="20"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="4">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="20"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="4">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="20"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="4">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="20"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="4">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="20"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="4">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="20"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="4">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="20"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="4">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="20"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="4">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="20"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="4">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="20"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="4">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="20"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="4">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="20"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="4">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="20"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="4">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="20"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="4">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="20"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="20"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="4">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="20"/>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="4">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="20"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="4">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="20"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="4">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="20"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="4">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="20"/>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="4">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="20"/>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="4">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="20"/>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="4">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="20"/>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="4">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="20"/>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="4">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B49" s="16"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="20"/>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="4">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="20"/>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="4">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B51" s="16"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="20"/>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="4">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="20"/>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="4">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="20"/>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="4">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B54" s="16"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="20"/>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="4">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="20"/>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="4">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="20"/>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="4">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B57" s="16"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="20"/>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="4">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B58" s="16"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="20"/>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="4">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B59" s="16"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="20"/>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="4">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B60" s="16"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="20"/>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="4">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B61" s="16"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="20"/>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="4">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B62" s="16"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="20"/>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="4">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B63" s="16"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="20"/>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="4">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B64" s="16"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="20"/>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="4">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="B65" s="16"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="20"/>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="4">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="B66" s="16"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="20"/>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="4">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="B67" s="16"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="20"/>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="4">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="B68" s="16"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="20"/>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="4">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="B69" s="16"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="20"/>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="4">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="B70" s="16"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="20"/>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="A71" s="4">
-        <f t="shared" ref="A71:A104" si="1">ROW()-4</f>
-        <v>67</v>
-      </c>
-      <c r="B71" s="16"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="20"/>
-    </row>
-    <row r="72" spans="1:12">
-      <c r="A72" s="4">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="B72" s="16"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="20"/>
-    </row>
-    <row r="73" spans="1:12">
-      <c r="A73" s="4">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="B73" s="16"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="20"/>
-    </row>
-    <row r="74" spans="1:12">
-      <c r="A74" s="4">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="B74" s="16"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="20"/>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="A75" s="4">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="B75" s="16"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="20"/>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="4">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="B76" s="16"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="20"/>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="4">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-      <c r="B77" s="16"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="20"/>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="4">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="B78" s="16"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="20"/>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="4">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="B79" s="16"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="20"/>
-    </row>
-    <row r="80" spans="1:12">
-      <c r="A80" s="4">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="B80" s="16"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="20"/>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="A81" s="4">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="B81" s="16"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="20"/>
-    </row>
-    <row r="82" spans="1:12">
-      <c r="A82" s="4">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="B82" s="16"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="20"/>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="A83" s="4">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="B83" s="16"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="20"/>
-    </row>
-    <row r="84" spans="1:12">
-      <c r="A84" s="4">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="B84" s="16"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="20"/>
-    </row>
-    <row r="85" spans="1:12">
-      <c r="A85" s="4">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="B85" s="16"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="20"/>
-    </row>
-    <row r="86" spans="1:12">
-      <c r="A86" s="4">
-        <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="B86" s="16"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="20"/>
-    </row>
-    <row r="87" spans="1:12">
-      <c r="A87" s="4">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="B87" s="16"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="20"/>
-    </row>
-    <row r="88" spans="1:12">
-      <c r="A88" s="4">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="B88" s="16"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="20"/>
-    </row>
-    <row r="89" spans="1:12">
-      <c r="A89" s="4">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="B89" s="16"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="7"/>
-      <c r="L89" s="20"/>
-    </row>
-    <row r="90" spans="1:12">
-      <c r="A90" s="4">
-        <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="B90" s="16"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="7"/>
-      <c r="L90" s="20"/>
-    </row>
-    <row r="91" spans="1:12">
-      <c r="A91" s="4">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-      <c r="B91" s="16"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5"/>
-      <c r="K91" s="7"/>
-      <c r="L91" s="20"/>
-    </row>
-    <row r="92" spans="1:12">
-      <c r="A92" s="4">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="B92" s="16"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="20"/>
-    </row>
-    <row r="93" spans="1:12">
-      <c r="A93" s="4">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="B93" s="16"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="20"/>
-    </row>
-    <row r="94" spans="1:12">
-      <c r="A94" s="4">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="B94" s="16"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="20"/>
-    </row>
-    <row r="95" spans="1:12">
-      <c r="A95" s="4">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="B95" s="16"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="7"/>
-      <c r="L95" s="20"/>
-    </row>
-    <row r="96" spans="1:12">
-      <c r="A96" s="4">
-        <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="B96" s="16"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="20"/>
-    </row>
-    <row r="97" spans="1:12">
-      <c r="A97" s="4">
-        <f t="shared" si="1"/>
-        <v>93</v>
-      </c>
-      <c r="B97" s="16"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="20"/>
-    </row>
-    <row r="98" spans="1:12">
-      <c r="A98" s="4">
-        <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="B98" s="16"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="20"/>
-    </row>
-    <row r="99" spans="1:12">
-      <c r="A99" s="4">
-        <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="B99" s="16"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
-      <c r="K99" s="7"/>
-      <c r="L99" s="20"/>
-    </row>
-    <row r="100" spans="1:12">
-      <c r="A100" s="4">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="B100" s="16"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
-      <c r="K100" s="7"/>
-      <c r="L100" s="20"/>
-    </row>
-    <row r="101" spans="1:12">
-      <c r="A101" s="4">
-        <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-      <c r="B101" s="16"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="7"/>
-      <c r="L101" s="20"/>
-    </row>
-    <row r="102" spans="1:12">
-      <c r="A102" s="4">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-      <c r="B102" s="16"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="7"/>
-      <c r="L102" s="20"/>
-    </row>
-    <row r="103" spans="1:12">
-      <c r="A103" s="4">
-        <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
-      <c r="B103" s="16"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5"/>
-      <c r="K103" s="7"/>
-      <c r="L103" s="20"/>
-    </row>
-    <row r="104" spans="1:12">
-      <c r="A104" s="4">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="B104" s="16"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
-      <c r="K104" s="7"/>
-      <c r="L104" s="20"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:C4" xr:uid="{98F0D596-6A6A-4296-9969-6DFE7B0BA08C}"/>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>